--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi1</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Lgi1</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,13 +537,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H2">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="N2">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="O2">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="P2">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="Q2">
-        <v>2.3242243E-05</v>
+        <v>0.0160994693075</v>
       </c>
       <c r="R2">
-        <v>0.000139453458</v>
+        <v>0.06439787723</v>
       </c>
       <c r="S2">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="T2">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,13 +599,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H3">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +626,22 @@
         <v>63.325338</v>
       </c>
       <c r="O3">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="P3">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="Q3">
-        <v>0.008633354414</v>
+        <v>0.7448115171099999</v>
       </c>
       <c r="R3">
-        <v>0.077700189726</v>
+        <v>4.468869102659999</v>
       </c>
       <c r="S3">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="T3">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.035285</v>
+      </c>
+      <c r="H4">
+        <v>0.07056999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.000409</v>
-      </c>
-      <c r="H4">
-        <v>0.001227</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="N4">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="O4">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="P4">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="Q4">
-        <v>1.779299966666667E-05</v>
+        <v>0.0002386206933333333</v>
       </c>
       <c r="R4">
-        <v>0.000160136997</v>
+        <v>0.00143172416</v>
       </c>
       <c r="S4">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="T4">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,19 +717,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H5">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="N5">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="O5">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="P5">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="Q5">
-        <v>0.0017428788575</v>
+        <v>0.238004840705</v>
       </c>
       <c r="R5">
-        <v>0.010457273145</v>
+        <v>0.9520193628199999</v>
       </c>
       <c r="S5">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="T5">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,19 +779,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.000409</v>
+        <v>0.035285</v>
       </c>
       <c r="H6">
-        <v>0.001227</v>
+        <v>0.07056999999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,96 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="N6">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="O6">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="P6">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="Q6">
-        <v>5.167360533333334E-05</v>
+        <v>0.001210604826666666</v>
       </c>
       <c r="R6">
-        <v>0.000465062448</v>
+        <v>0.007263628959999999</v>
       </c>
       <c r="S6">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="T6">
-        <v>0.005175761414855964</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.000409</v>
-      </c>
-      <c r="H7">
-        <v>0.001227</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.759416</v>
-      </c>
-      <c r="O7">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="P7">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="Q7">
-        <v>0.0001035337146666667</v>
-      </c>
-      <c r="R7">
-        <v>0.0009318034319999999</v>
-      </c>
-      <c r="S7">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="T7">
-        <v>0.01037020355076263</v>
+        <v>0.00132210650893016</v>
       </c>
     </row>
   </sheetData>
